--- a/02_センサ評価/d05_heimannセンサ/その他/pyqt_tutorial/PyQt関連属性.xlsx
+++ b/02_センサ評価/d05_heimannセンサ/その他/pyqt_tutorial/PyQt関連属性.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="13455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="1217">
   <si>
     <t>QAbstractButton</t>
   </si>
@@ -3593,6 +3593,103 @@
   </si>
   <si>
     <t>triggered</t>
+  </si>
+  <si>
+    <t>QtWidgets.Qmenu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aboutToHide</t>
+  </si>
+  <si>
+    <t>aboutToShow</t>
+  </si>
+  <si>
+    <t>actionAt</t>
+  </si>
+  <si>
+    <t>actionGeometry</t>
+  </si>
+  <si>
+    <t>activeAction</t>
+  </si>
+  <si>
+    <t>addMenu</t>
+  </si>
+  <si>
+    <t>addSection</t>
+  </si>
+  <si>
+    <t>addSeparator</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>columnCount</t>
+  </si>
+  <si>
+    <t>defaultAction</t>
+  </si>
+  <si>
+    <t>hideTearOffMenu</t>
+  </si>
+  <si>
+    <t>insertMenu</t>
+  </si>
+  <si>
+    <t>insertSection</t>
+  </si>
+  <si>
+    <t>insertSeparator</t>
+  </si>
+  <si>
+    <t>isEmpty</t>
+  </si>
+  <si>
+    <t>isTearOffEnabled</t>
+  </si>
+  <si>
+    <t>isTearOffMenuVisible</t>
+  </si>
+  <si>
+    <t>menuAction</t>
+  </si>
+  <si>
+    <t>popup</t>
+  </si>
+  <si>
+    <t>separatorsCollapsible</t>
+  </si>
+  <si>
+    <t>setActiveAction</t>
+  </si>
+  <si>
+    <t>setDefaultAction</t>
+  </si>
+  <si>
+    <t>setNoReplayFor</t>
+  </si>
+  <si>
+    <t>setSeparatorsCollapsible</t>
+  </si>
+  <si>
+    <t>setTearOffEnabled</t>
+  </si>
+  <si>
+    <t>setTitle</t>
+  </si>
+  <si>
+    <t>setToolTipsVisible</t>
+  </si>
+  <si>
+    <t>showTearOffMenu</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>toolTipsVisible</t>
   </si>
 </sst>
 </file>
@@ -3703,7 +3800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3747,6 +3844,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4319,10 +4419,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K456"/>
+  <dimension ref="A1:L456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4332,11 +4433,12 @@
     <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>671</v>
       </c>
@@ -4364,14 +4466,17 @@
       <c r="I1" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4399,14 +4504,17 @@
       <c r="I2" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4434,14 +4542,17 @@
       <c r="I3" s="13" t="s">
         <v>1146</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4469,14 +4580,17 @@
       <c r="I4" s="13" t="s">
         <v>1147</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4504,14 +4618,17 @@
       <c r="I5" s="13" t="s">
         <v>1148</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -4539,14 +4656,17 @@
       <c r="I6" s="13" t="s">
         <v>1149</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -4574,14 +4694,17 @@
       <c r="I7" s="13" t="s">
         <v>1150</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -4609,15 +4732,18 @@
       <c r="I8" s="13" t="s">
         <v>1151</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4644,14 +4770,17 @@
       <c r="I9" s="13" t="s">
         <v>1152</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -4679,14 +4808,17 @@
       <c r="I10" s="13" t="s">
         <v>1066</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -4714,14 +4846,17 @@
       <c r="I11" s="13" t="s">
         <v>1153</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -4749,14 +4884,17 @@
       <c r="I12" s="13" t="s">
         <v>1154</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -4784,14 +4922,17 @@
       <c r="I13" s="13" t="s">
         <v>1155</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -4819,14 +4960,17 @@
       <c r="I14" s="13" t="s">
         <v>1156</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -4854,14 +4998,17 @@
       <c r="I15" s="13" t="s">
         <v>1157</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -4889,14 +5036,17 @@
       <c r="I16" s="13" t="s">
         <v>1158</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -4924,14 +5074,17 @@
       <c r="I17" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -4959,14 +5112,17 @@
       <c r="I18" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -4994,14 +5150,17 @@
       <c r="I19" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -5029,14 +5188,17 @@
       <c r="I20" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -5064,14 +5226,17 @@
       <c r="I21" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -5099,14 +5264,17 @@
       <c r="I22" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K22" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -5134,14 +5302,17 @@
       <c r="I23" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -5169,15 +5340,18 @@
       <c r="I24" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -5204,14 +5378,17 @@
       <c r="I25" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -5239,14 +5416,17 @@
       <c r="I26" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -5274,14 +5454,17 @@
       <c r="I27" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -5309,14 +5492,17 @@
       <c r="I28" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -5344,14 +5530,17 @@
       <c r="I29" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -5379,14 +5568,17 @@
       <c r="I30" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -5414,14 +5606,17 @@
       <c r="I31" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -5449,14 +5644,17 @@
       <c r="I32" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -5484,14 +5682,17 @@
       <c r="I33" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -5519,14 +5720,17 @@
       <c r="I34" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -5554,14 +5758,17 @@
       <c r="I35" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -5586,14 +5793,17 @@
       <c r="I36" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="K36" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -5618,14 +5828,17 @@
       <c r="I37" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -5650,14 +5863,17 @@
       <c r="I38" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="K38" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -5682,14 +5898,17 @@
       <c r="I39" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K39" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -5714,14 +5933,17 @@
       <c r="I40" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="K40" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -5746,14 +5968,17 @@
       <c r="I41" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K41" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -5778,14 +6003,17 @@
       <c r="I42" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="K42" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -5810,14 +6038,17 @@
       <c r="I43" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K43" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -5842,14 +6073,17 @@
       <c r="I44" s="13" t="s">
         <v>1159</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="K44" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -5874,14 +6108,17 @@
       <c r="I45" s="13" t="s">
         <v>1160</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -5906,14 +6143,17 @@
       <c r="I46" s="13" t="s">
         <v>1161</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="K46" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -5938,14 +6178,17 @@
       <c r="I47" s="13" t="s">
         <v>1162</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -5970,14 +6213,17 @@
       <c r="I48" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K48" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -6002,14 +6248,17 @@
       <c r="I49" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K49" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -6034,14 +6283,17 @@
       <c r="I50" s="13" t="s">
         <v>1163</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="K50" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -6066,14 +6318,17 @@
       <c r="I51" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -6098,46 +6353,52 @@
       <c r="I52" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="13" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>261</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="1" t="s">
         <v>261</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K53" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -6162,14 +6423,17 @@
       <c r="I54" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K54" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -6194,14 +6458,17 @@
       <c r="I55" s="13" t="s">
         <v>1164</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K55" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -6226,14 +6493,17 @@
       <c r="I56" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K56" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -6258,14 +6528,17 @@
       <c r="I57" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K57" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -6290,14 +6563,17 @@
       <c r="I58" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="K58" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -6322,14 +6598,17 @@
       <c r="I59" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -6354,14 +6633,17 @@
       <c r="I60" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -6386,14 +6668,17 @@
       <c r="I61" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K61" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -6418,14 +6703,17 @@
       <c r="I62" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K62" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -6450,14 +6738,17 @@
       <c r="I63" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="K63" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -6467,7 +6758,7 @@
       <c r="C64" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>575</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -6482,14 +6773,17 @@
       <c r="I64" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K64" s="11" t="s">
         <v>859</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -6514,14 +6808,17 @@
       <c r="I65" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="K65" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -6546,14 +6843,17 @@
       <c r="I66" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="K66" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -6578,14 +6878,17 @@
       <c r="I67" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K67" s="11" t="s">
         <v>862</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -6610,14 +6913,17 @@
       <c r="I68" s="13" t="s">
         <v>1165</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K68" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -6642,14 +6948,17 @@
       <c r="I69" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="K69" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -6674,14 +6983,17 @@
       <c r="I70" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="K70" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -6706,14 +7018,17 @@
       <c r="I71" s="13" t="s">
         <v>1167</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K71" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -6738,14 +7053,17 @@
       <c r="I72" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K72" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -6770,14 +7088,17 @@
       <c r="I73" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="K73" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -6802,14 +7123,17 @@
       <c r="I74" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="13" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K74" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -6834,14 +7158,17 @@
       <c r="I75" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K75" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -6866,14 +7193,17 @@
       <c r="I76" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="J76" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="K76" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -6898,14 +7228,17 @@
       <c r="I77" s="13" t="s">
         <v>1168</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J77" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="K77" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
@@ -6930,14 +7263,17 @@
       <c r="I78" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="J78" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="K78" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -6962,14 +7298,17 @@
       <c r="I79" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="J79" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="K79" s="11" t="s">
         <v>874</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -6994,14 +7333,17 @@
       <c r="I80" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K80" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
@@ -7026,14 +7368,17 @@
       <c r="I81" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="K81" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
@@ -7058,14 +7403,17 @@
       <c r="I82" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="K82" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -7090,14 +7438,17 @@
       <c r="I83" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K83" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -7122,14 +7473,17 @@
       <c r="I84" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="K84" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -7154,14 +7508,17 @@
       <c r="I85" s="13" t="s">
         <v>1169</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="J85" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="K85" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
@@ -7186,14 +7543,17 @@
       <c r="I86" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="J86" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="K86" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -7218,14 +7578,17 @@
       <c r="I87" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="J87" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="K87" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
@@ -7250,14 +7613,17 @@
       <c r="I88" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="J88" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="K88" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -7282,14 +7648,17 @@
       <c r="I89" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="J89" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="K89" s="11" t="s">
         <v>884</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>88</v>
       </c>
@@ -7314,14 +7683,17 @@
       <c r="I90" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="K90" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
@@ -7346,14 +7718,17 @@
       <c r="I91" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K91" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
@@ -7378,14 +7753,17 @@
       <c r="I92" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K92" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
@@ -7410,14 +7788,17 @@
       <c r="I93" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K93" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="L93" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
@@ -7442,14 +7823,17 @@
       <c r="I94" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="J94" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="K94" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
@@ -7474,14 +7858,17 @@
       <c r="I95" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="J95" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="K95" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
@@ -7506,14 +7893,17 @@
       <c r="I96" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="J96" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="K96" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="L96" s="2" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
@@ -7538,14 +7928,17 @@
       <c r="I97" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="J97" s="11" t="s">
+      <c r="J97" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="K97" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="L97" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
@@ -7570,14 +7963,17 @@
       <c r="I98" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="J98" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="K98" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="L98" s="2" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
@@ -7602,14 +7998,17 @@
       <c r="I99" s="13" t="s">
         <v>1171</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="J99" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="K99" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
@@ -7634,14 +8033,17 @@
       <c r="I100" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="J100" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="K100" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
@@ -7666,14 +8068,17 @@
       <c r="I101" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="J101" s="11" t="s">
+      <c r="J101" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="K101" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
@@ -7695,18 +8100,21 @@
       <c r="H102" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="J102" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="K102" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="L102" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -7730,14 +8138,17 @@
       <c r="I103" s="13" t="s">
         <v>1172</v>
       </c>
-      <c r="J103" s="11" t="s">
+      <c r="J103" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="K103" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
@@ -7762,15 +8173,18 @@
       <c r="I104" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="J104" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="K104" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -7794,14 +8208,17 @@
       <c r="I105" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="J105" s="11" t="s">
+      <c r="J105" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="K105" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
@@ -7817,7 +8234,7 @@
       <c r="F106" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="1" t="s">
         <v>261</v>
       </c>
       <c r="H106" s="10" t="s">
@@ -7826,14 +8243,17 @@
       <c r="I106" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="K106" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
@@ -7858,14 +8278,17 @@
       <c r="I107" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="J107" s="11" t="s">
+      <c r="J107" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="K107" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
@@ -7890,14 +8313,17 @@
       <c r="I108" s="13" t="s">
         <v>1173</v>
       </c>
-      <c r="J108" s="11" t="s">
+      <c r="J108" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="K108" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
@@ -7922,14 +8348,17 @@
       <c r="I109" s="13" t="s">
         <v>1174</v>
       </c>
-      <c r="J109" s="11" t="s">
+      <c r="J109" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K109" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="L109" s="2" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
@@ -7954,14 +8383,17 @@
       <c r="I110" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="J110" s="11" t="s">
+      <c r="J110" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K110" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
@@ -7986,14 +8418,17 @@
       <c r="I111" s="13" t="s">
         <v>1175</v>
       </c>
-      <c r="J111" s="11" t="s">
+      <c r="J111" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="K111" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -8018,14 +8453,17 @@
       <c r="I112" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J112" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="K112" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>111</v>
       </c>
@@ -8050,14 +8488,17 @@
       <c r="I113" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="J113" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K113" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="L113" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
@@ -8082,15 +8523,18 @@
       <c r="I114" s="13" t="s">
         <v>1176</v>
       </c>
-      <c r="J114" s="11" t="s">
+      <c r="J114" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="K114" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="L114" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -8114,14 +8558,17 @@
       <c r="I115" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J115" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="K115" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="L115" s="2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>114</v>
       </c>
@@ -8146,11 +8593,14 @@
       <c r="I116" s="13" t="s">
         <v>1177</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="J116" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="K116" s="11" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>115</v>
       </c>
@@ -8172,14 +8622,17 @@
       <c r="H117" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="I117" s="13" t="s">
+      <c r="I117" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="J117" s="11" t="s">
+      <c r="J117" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="K117" s="11" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>116</v>
       </c>
@@ -8204,11 +8657,14 @@
       <c r="I118" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="J118" s="11" t="s">
+      <c r="J118" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="K118" s="11" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>117</v>
       </c>
@@ -8233,11 +8689,14 @@
       <c r="I119" s="13" t="s">
         <v>1179</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="J119" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="K119" s="11" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>118</v>
       </c>
@@ -8259,14 +8718,17 @@
       <c r="H120" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="I120" s="13" t="s">
+      <c r="I120" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="J120" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="K120" s="11" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>119</v>
       </c>
@@ -8291,11 +8753,14 @@
       <c r="I121" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="J121" s="11" t="s">
+      <c r="J121" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="K121" s="11" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>120</v>
       </c>
@@ -8320,11 +8785,14 @@
       <c r="I122" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="J122" s="11" t="s">
+      <c r="J122" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="K122" s="11" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>121</v>
       </c>
@@ -8349,11 +8817,14 @@
       <c r="I123" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="J123" s="11" t="s">
+      <c r="J123" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="K123" s="11" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>122</v>
       </c>
@@ -8378,11 +8849,14 @@
       <c r="I124" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="J124" s="11" t="s">
+      <c r="J124" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="K124" s="11" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>123</v>
       </c>
@@ -8407,11 +8881,14 @@
       <c r="I125" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="J125" s="11" t="s">
+      <c r="J125" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="K125" s="11" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>124</v>
       </c>
@@ -8436,11 +8913,14 @@
       <c r="I126" s="13" t="s">
         <v>1180</v>
       </c>
-      <c r="J126" s="11" t="s">
+      <c r="J126" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="K126" s="11" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>125</v>
       </c>
@@ -8465,11 +8945,14 @@
       <c r="I127" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="J127" s="11" t="s">
+      <c r="J127" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="K127" s="11" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>126</v>
       </c>
@@ -8494,11 +8977,14 @@
       <c r="I128" s="13" t="s">
         <v>1182</v>
       </c>
-      <c r="J128" s="11" t="s">
+      <c r="J128" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="K128" s="11" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>127</v>
       </c>
@@ -8523,11 +9009,14 @@
       <c r="I129" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="J129" s="11" t="s">
+      <c r="J129" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K129" s="11" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>128</v>
       </c>
@@ -8552,11 +9041,14 @@
       <c r="I130" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="J130" s="11" t="s">
+      <c r="J130" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="K130" s="11" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>129</v>
       </c>
@@ -8581,11 +9073,14 @@
       <c r="I131" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="J131" s="11" t="s">
+      <c r="J131" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="K131" s="11" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>130</v>
       </c>
@@ -8610,11 +9105,14 @@
       <c r="I132" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="J132" s="11" t="s">
+      <c r="J132" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K132" s="11" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>131</v>
       </c>
@@ -8639,11 +9137,14 @@
       <c r="I133" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="J133" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="K133" s="11" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>132</v>
       </c>
@@ -8668,11 +9169,14 @@
       <c r="I134" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="J134" s="11" t="s">
+      <c r="J134" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="K134" s="11" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>133</v>
       </c>
@@ -8697,11 +9201,14 @@
       <c r="I135" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="J135" s="11" t="s">
+      <c r="J135" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="K135" s="11" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>134</v>
       </c>
@@ -8726,11 +9233,14 @@
       <c r="I136" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="J136" s="11" t="s">
+      <c r="J136" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="K136" s="11" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>135</v>
       </c>
@@ -8755,11 +9265,14 @@
       <c r="I137" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="J137" s="11" t="s">
+      <c r="J137" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="K137" s="11" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>136</v>
       </c>
@@ -8784,11 +9297,14 @@
       <c r="I138" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="J138" s="11" t="s">
+      <c r="J138" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="K138" s="11" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>137</v>
       </c>
@@ -8813,11 +9329,14 @@
       <c r="I139" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="J139" s="11" t="s">
+      <c r="J139" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="K139" s="11" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>138</v>
       </c>
@@ -8842,11 +9361,14 @@
       <c r="I140" s="13" t="s">
         <v>1183</v>
       </c>
-      <c r="J140" s="11" t="s">
+      <c r="J140" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="K140" s="11" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>139</v>
       </c>
@@ -8868,14 +9390,17 @@
       <c r="H141" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="I141" s="13" t="s">
+      <c r="I141" s="12" t="s">
         <v>1184</v>
       </c>
-      <c r="J141" s="11" t="s">
+      <c r="J141" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="K141" s="11" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>140</v>
       </c>
@@ -8900,11 +9425,14 @@
       <c r="I142" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="J142" s="11" t="s">
+      <c r="J142" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="K142" s="11" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -8927,11 +9455,14 @@
         <v>350</v>
       </c>
       <c r="I143" s="13"/>
-      <c r="J143" s="11" t="s">
+      <c r="J143" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="K143" s="11" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>142</v>
       </c>
@@ -8954,11 +9485,14 @@
         <v>351</v>
       </c>
       <c r="I144" s="13"/>
-      <c r="J144" s="11" t="s">
+      <c r="J144" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="K144" s="11" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>143</v>
       </c>
@@ -8981,11 +9515,14 @@
         <v>352</v>
       </c>
       <c r="I145" s="13"/>
-      <c r="J145" s="11" t="s">
+      <c r="J145" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="K145" s="11" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>144</v>
       </c>
@@ -9008,11 +9545,14 @@
         <v>353</v>
       </c>
       <c r="I146" s="13"/>
-      <c r="J146" s="11" t="s">
+      <c r="J146" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="K146" s="11" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>145</v>
       </c>
@@ -9035,11 +9575,14 @@
         <v>354</v>
       </c>
       <c r="I147" s="13"/>
-      <c r="J147" s="11" t="s">
+      <c r="J147" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="K147" s="11" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>146</v>
       </c>
@@ -9062,11 +9605,14 @@
         <v>355</v>
       </c>
       <c r="I148" s="13"/>
-      <c r="J148" s="11" t="s">
+      <c r="J148" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K148" s="11" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>147</v>
       </c>
@@ -9089,11 +9635,14 @@
         <v>356</v>
       </c>
       <c r="I149" s="13"/>
-      <c r="J149" s="11" t="s">
+      <c r="J149" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="K149" s="11" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>148</v>
       </c>
@@ -9116,11 +9665,14 @@
         <v>357</v>
       </c>
       <c r="I150" s="13"/>
-      <c r="J150" s="11" t="s">
+      <c r="J150" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="K150" s="11" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>149</v>
       </c>
@@ -9143,11 +9695,14 @@
         <v>358</v>
       </c>
       <c r="I151" s="13"/>
-      <c r="J151" s="11" t="s">
+      <c r="J151" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K151" s="11" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>150</v>
       </c>
@@ -9170,11 +9725,14 @@
         <v>359</v>
       </c>
       <c r="I152" s="13"/>
-      <c r="J152" s="11" t="s">
+      <c r="J152" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K152" s="11" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>151</v>
       </c>
@@ -9197,11 +9755,14 @@
         <v>360</v>
       </c>
       <c r="I153" s="13"/>
-      <c r="J153" s="11" t="s">
+      <c r="J153" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="K153" s="11" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
@@ -9224,11 +9785,14 @@
         <v>361</v>
       </c>
       <c r="I154" s="13"/>
-      <c r="J154" s="11" t="s">
+      <c r="J154" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K154" s="11" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>153</v>
       </c>
@@ -9251,11 +9815,14 @@
         <v>362</v>
       </c>
       <c r="I155" s="13"/>
-      <c r="J155" s="11" t="s">
+      <c r="J155" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="K155" s="11" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>154</v>
       </c>
@@ -9278,11 +9845,14 @@
         <v>363</v>
       </c>
       <c r="I156" s="13"/>
-      <c r="J156" s="11" t="s">
+      <c r="J156" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="K156" s="11" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>155</v>
       </c>
@@ -9305,11 +9875,14 @@
         <v>364</v>
       </c>
       <c r="I157" s="13"/>
-      <c r="J157" s="11" t="s">
+      <c r="J157" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K157" s="11" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>156</v>
       </c>
@@ -9332,11 +9905,14 @@
         <v>365</v>
       </c>
       <c r="I158" s="13"/>
-      <c r="J158" s="11" t="s">
+      <c r="J158" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="K158" s="11" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>157</v>
       </c>
@@ -9359,11 +9935,14 @@
         <v>1132</v>
       </c>
       <c r="I159" s="13"/>
-      <c r="J159" s="11" t="s">
+      <c r="J159" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="K159" s="11" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>158</v>
       </c>
@@ -9386,11 +9965,14 @@
         <v>366</v>
       </c>
       <c r="I160" s="13"/>
-      <c r="J160" s="11" t="s">
+      <c r="J160" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="K160" s="11" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>159</v>
       </c>
@@ -9413,11 +9995,14 @@
         <v>367</v>
       </c>
       <c r="I161" s="13"/>
-      <c r="J161" s="11" t="s">
+      <c r="J161" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="K161" s="11" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>160</v>
       </c>
@@ -9440,11 +10025,14 @@
         <v>368</v>
       </c>
       <c r="I162" s="13"/>
-      <c r="J162" s="11" t="s">
+      <c r="J162" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K162" s="11" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>161</v>
       </c>
@@ -9467,11 +10055,14 @@
         <v>369</v>
       </c>
       <c r="I163" s="13"/>
-      <c r="J163" s="11" t="s">
+      <c r="J163" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K163" s="11" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>162</v>
       </c>
@@ -9494,11 +10085,14 @@
         <v>370</v>
       </c>
       <c r="I164" s="13"/>
-      <c r="J164" s="11" t="s">
+      <c r="J164" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K164" s="11" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>163</v>
       </c>
@@ -9521,11 +10115,14 @@
         <v>371</v>
       </c>
       <c r="I165" s="13"/>
-      <c r="J165" s="11" t="s">
+      <c r="J165" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="K165" s="11" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>164</v>
       </c>
@@ -9548,11 +10145,14 @@
         <v>372</v>
       </c>
       <c r="I166" s="13"/>
-      <c r="J166" s="11" t="s">
+      <c r="J166" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="K166" s="11" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
@@ -9575,11 +10175,14 @@
         <v>373</v>
       </c>
       <c r="I167" s="13"/>
-      <c r="J167" s="11" t="s">
+      <c r="J167" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="K167" s="11" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
@@ -9602,11 +10205,14 @@
         <v>374</v>
       </c>
       <c r="I168" s="13"/>
-      <c r="J168" s="11" t="s">
+      <c r="J168" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K168" s="11" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
@@ -9629,11 +10235,14 @@
         <v>375</v>
       </c>
       <c r="I169" s="13"/>
-      <c r="J169" s="11" t="s">
+      <c r="J169" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="K169" s="11" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
@@ -9656,11 +10265,14 @@
         <v>376</v>
       </c>
       <c r="I170" s="13"/>
-      <c r="J170" s="11" t="s">
+      <c r="J170" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="K170" s="11" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
@@ -9683,11 +10295,14 @@
         <v>377</v>
       </c>
       <c r="I171" s="13"/>
-      <c r="J171" s="11" t="s">
+      <c r="J171" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="K171" s="11" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
@@ -9710,11 +10325,14 @@
         <v>378</v>
       </c>
       <c r="I172" s="13"/>
-      <c r="J172" s="11" t="s">
+      <c r="J172" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="K172" s="11" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>171</v>
       </c>
@@ -9737,11 +10355,14 @@
         <v>379</v>
       </c>
       <c r="I173" s="13"/>
-      <c r="J173" s="11" t="s">
+      <c r="J173" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="K173" s="11" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>172</v>
       </c>
@@ -9764,11 +10385,14 @@
         <v>380</v>
       </c>
       <c r="I174" s="13"/>
-      <c r="J174" s="11" t="s">
+      <c r="J174" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="K174" s="11" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>173</v>
       </c>
@@ -9791,11 +10415,14 @@
         <v>381</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="11" t="s">
+      <c r="J175" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="K175" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>174</v>
       </c>
@@ -9818,11 +10445,14 @@
         <v>382</v>
       </c>
       <c r="I176" s="13"/>
-      <c r="J176" s="11" t="s">
+      <c r="J176" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="K176" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>175</v>
       </c>
@@ -9845,11 +10475,14 @@
         <v>383</v>
       </c>
       <c r="I177" s="13"/>
-      <c r="J177" s="11" t="s">
+      <c r="J177" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="K177" s="11" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>176</v>
       </c>
@@ -9872,11 +10505,14 @@
         <v>384</v>
       </c>
       <c r="I178" s="13"/>
-      <c r="J178" s="11" t="s">
+      <c r="J178" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="K178" s="11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>177</v>
       </c>
@@ -9899,11 +10535,14 @@
         <v>385</v>
       </c>
       <c r="I179" s="13"/>
-      <c r="J179" s="11" t="s">
+      <c r="J179" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K179" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>178</v>
       </c>
@@ -9926,12 +10565,15 @@
         <v>386</v>
       </c>
       <c r="I180" s="13"/>
-      <c r="J180" s="11" t="s">
+      <c r="J180" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K180" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -9953,11 +10595,14 @@
         <v>387</v>
       </c>
       <c r="I181" s="13"/>
-      <c r="J181" s="11" t="s">
+      <c r="J181" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="K181" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
@@ -9980,11 +10625,14 @@
         <v>388</v>
       </c>
       <c r="I182" s="13"/>
-      <c r="J182" s="11" t="s">
+      <c r="J182" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="K182" s="11" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
@@ -10007,11 +10655,14 @@
         <v>389</v>
       </c>
       <c r="I183" s="13"/>
-      <c r="J183" s="11" t="s">
+      <c r="J183" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="K183" s="11" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
@@ -10034,11 +10685,14 @@
         <v>390</v>
       </c>
       <c r="I184" s="13"/>
-      <c r="J184" s="11" t="s">
+      <c r="J184" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="K184" s="11" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>183</v>
       </c>
@@ -10061,11 +10715,14 @@
         <v>391</v>
       </c>
       <c r="I185" s="13"/>
-      <c r="J185" s="11" t="s">
+      <c r="J185" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="K185" s="11" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>184</v>
       </c>
@@ -10088,11 +10745,14 @@
         <v>392</v>
       </c>
       <c r="I186" s="13"/>
-      <c r="J186" s="11" t="s">
+      <c r="J186" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="K186" s="11" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>185</v>
       </c>
@@ -10115,11 +10775,14 @@
         <v>393</v>
       </c>
       <c r="I187" s="13"/>
-      <c r="J187" s="11" t="s">
+      <c r="J187" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="K187" s="11" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>186</v>
       </c>
@@ -10142,11 +10805,14 @@
         <v>394</v>
       </c>
       <c r="I188" s="13"/>
-      <c r="J188" s="11" t="s">
+      <c r="J188" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="K188" s="11" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>187</v>
       </c>
@@ -10169,11 +10835,14 @@
         <v>395</v>
       </c>
       <c r="I189" s="13"/>
-      <c r="J189" s="11" t="s">
+      <c r="J189" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="K189" s="11" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>188</v>
       </c>
@@ -10196,11 +10865,14 @@
         <v>396</v>
       </c>
       <c r="I190" s="13"/>
-      <c r="J190" s="11" t="s">
+      <c r="J190" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="K190" s="11" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>189</v>
       </c>
@@ -10223,11 +10895,14 @@
         <v>397</v>
       </c>
       <c r="I191" s="13"/>
-      <c r="J191" s="11" t="s">
+      <c r="J191" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="K191" s="11" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>190</v>
       </c>
@@ -10250,11 +10925,14 @@
         <v>398</v>
       </c>
       <c r="I192" s="13"/>
-      <c r="J192" s="11" t="s">
+      <c r="J192" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="K192" s="11" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>191</v>
       </c>
@@ -10277,11 +10955,14 @@
         <v>399</v>
       </c>
       <c r="I193" s="13"/>
-      <c r="J193" s="11" t="s">
+      <c r="J193" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="K193" s="11" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>192</v>
       </c>
@@ -10304,11 +10985,14 @@
         <v>400</v>
       </c>
       <c r="I194" s="13"/>
-      <c r="J194" s="11" t="s">
+      <c r="J194" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K194" s="11" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
@@ -10331,11 +11015,14 @@
         <v>401</v>
       </c>
       <c r="I195" s="13"/>
-      <c r="J195" s="11" t="s">
+      <c r="J195" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="K195" s="11" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
@@ -10358,11 +11045,14 @@
         <v>402</v>
       </c>
       <c r="I196" s="13"/>
-      <c r="J196" s="11" t="s">
+      <c r="J196" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="K196" s="11" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
@@ -10385,11 +11075,14 @@
         <v>403</v>
       </c>
       <c r="I197" s="13"/>
-      <c r="J197" s="11" t="s">
+      <c r="J197" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="K197" s="11" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
@@ -10412,11 +11105,14 @@
         <v>404</v>
       </c>
       <c r="I198" s="13"/>
-      <c r="J198" s="11" t="s">
+      <c r="J198" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K198" s="11" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
@@ -10439,11 +11135,14 @@
         <v>405</v>
       </c>
       <c r="I199" s="13"/>
-      <c r="J199" s="11" t="s">
+      <c r="J199" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="K199" s="11" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
@@ -10466,11 +11165,14 @@
         <v>406</v>
       </c>
       <c r="I200" s="13"/>
-      <c r="J200" s="11" t="s">
+      <c r="J200" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="K200" s="11" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>199</v>
       </c>
@@ -10493,11 +11195,14 @@
         <v>407</v>
       </c>
       <c r="I201" s="13"/>
-      <c r="J201" s="11" t="s">
+      <c r="J201" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="K201" s="11" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>200</v>
       </c>
@@ -10520,11 +11225,14 @@
         <v>408</v>
       </c>
       <c r="I202" s="13"/>
-      <c r="J202" s="11" t="s">
+      <c r="J202" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="K202" s="11" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>201</v>
       </c>
@@ -10547,11 +11255,14 @@
         <v>409</v>
       </c>
       <c r="I203" s="13"/>
-      <c r="J203" s="11" t="s">
+      <c r="J203" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="K203" s="11" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>202</v>
       </c>
@@ -10574,11 +11285,14 @@
         <v>410</v>
       </c>
       <c r="I204" s="13"/>
-      <c r="J204" s="11" t="s">
+      <c r="J204" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="K204" s="11" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>203</v>
       </c>
@@ -10601,11 +11315,14 @@
         <v>411</v>
       </c>
       <c r="I205" s="13"/>
-      <c r="J205" s="11" t="s">
+      <c r="J205" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="K205" s="11" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>204</v>
       </c>
@@ -10628,11 +11345,14 @@
         <v>412</v>
       </c>
       <c r="I206" s="13"/>
-      <c r="J206" s="11" t="s">
+      <c r="J206" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="K206" s="11" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>205</v>
       </c>
@@ -10655,11 +11375,14 @@
         <v>413</v>
       </c>
       <c r="I207" s="13"/>
-      <c r="J207" s="11" t="s">
+      <c r="J207" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="K207" s="11" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>206</v>
       </c>
@@ -10682,11 +11405,14 @@
         <v>414</v>
       </c>
       <c r="I208" s="13"/>
-      <c r="J208" s="11" t="s">
+      <c r="J208" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K208" s="11" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>207</v>
       </c>
@@ -10696,7 +11422,7 @@
       <c r="C209" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F209" s="2" t="s">
@@ -10709,11 +11435,14 @@
         <v>415</v>
       </c>
       <c r="I209" s="13"/>
-      <c r="J209" s="11" t="s">
+      <c r="J209" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K209" s="11" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -10736,11 +11465,14 @@
         <v>416</v>
       </c>
       <c r="I210" s="13"/>
-      <c r="J210" s="11" t="s">
+      <c r="J210" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="K210" s="11" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -10763,11 +11495,14 @@
         <v>417</v>
       </c>
       <c r="I211" s="13"/>
-      <c r="J211" s="11" t="s">
+      <c r="J211" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="K211" s="11" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>795</v>
       </c>
@@ -10787,11 +11522,14 @@
         <v>418</v>
       </c>
       <c r="I212" s="13"/>
-      <c r="J212" s="11" t="s">
+      <c r="J212" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="K212" s="11" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>552</v>
       </c>
@@ -10811,11 +11549,14 @@
         <v>419</v>
       </c>
       <c r="I213" s="13"/>
-      <c r="J213" s="11" t="s">
+      <c r="J213" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="K213" s="11" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C214" s="4" t="s">
         <v>422</v>
       </c>
@@ -10832,11 +11573,14 @@
         <v>420</v>
       </c>
       <c r="I214" s="13"/>
-      <c r="J214" s="11" t="s">
+      <c r="J214" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="K214" s="11" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C215" s="4" t="s">
         <v>423</v>
       </c>
@@ -10853,11 +11597,14 @@
         <v>421</v>
       </c>
       <c r="I215" s="13"/>
-      <c r="J215" s="11" t="s">
+      <c r="J215" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K215" s="11" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C216" s="4" t="s">
         <v>424</v>
       </c>
@@ -10874,11 +11621,14 @@
         <v>422</v>
       </c>
       <c r="I216" s="13"/>
-      <c r="J216" s="11" t="s">
+      <c r="J216" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="K216" s="11" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C217" s="4" t="s">
         <v>425</v>
       </c>
@@ -10895,11 +11645,14 @@
         <v>423</v>
       </c>
       <c r="I217" s="13"/>
-      <c r="J217" s="11" t="s">
+      <c r="J217" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="K217" s="11" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C218" s="4" t="s">
         <v>426</v>
       </c>
@@ -10916,11 +11669,14 @@
         <v>424</v>
       </c>
       <c r="I218" s="13"/>
-      <c r="J218" s="11" t="s">
+      <c r="J218" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="K218" s="11" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C219" s="4" t="s">
         <v>427</v>
       </c>
@@ -10937,11 +11693,14 @@
         <v>742</v>
       </c>
       <c r="I219" s="13"/>
-      <c r="J219" s="11" t="s">
+      <c r="J219" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="K219" s="11" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C220" s="4" t="s">
         <v>428</v>
       </c>
@@ -10958,11 +11717,14 @@
         <v>743</v>
       </c>
       <c r="I220" s="13"/>
-      <c r="J220" s="11" t="s">
+      <c r="J220" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="K220" s="11" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C221" s="4" t="s">
         <v>429</v>
       </c>
@@ -10979,11 +11741,14 @@
         <v>425</v>
       </c>
       <c r="I221" s="13"/>
-      <c r="J221" s="11" t="s">
+      <c r="J221" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="K221" s="11" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C222" s="4" t="s">
         <v>430</v>
       </c>
@@ -11000,11 +11765,14 @@
         <v>426</v>
       </c>
       <c r="I222" s="13"/>
-      <c r="J222" s="11" t="s">
+      <c r="J222" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="K222" s="11" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C223" s="4" t="s">
         <v>431</v>
       </c>
@@ -11021,11 +11789,14 @@
         <v>427</v>
       </c>
       <c r="I223" s="13"/>
-      <c r="J223" s="11" t="s">
+      <c r="J223" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="K223" s="11" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C224" s="4" t="s">
         <v>432</v>
       </c>
@@ -11042,11 +11813,14 @@
         <v>428</v>
       </c>
       <c r="I224" s="13"/>
-      <c r="J224" s="11" t="s">
+      <c r="J224" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="K224" s="11" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="225" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C225" s="4" t="s">
         <v>433</v>
       </c>
@@ -11063,11 +11837,14 @@
         <v>429</v>
       </c>
       <c r="I225" s="13"/>
-      <c r="J225" s="11" t="s">
+      <c r="J225" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="K225" s="11" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="226" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C226" s="4" t="s">
         <v>434</v>
       </c>
@@ -11084,11 +11861,14 @@
         <v>430</v>
       </c>
       <c r="I226" s="13"/>
-      <c r="J226" s="11" t="s">
+      <c r="J226" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="K226" s="11" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="227" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C227" s="4" t="s">
         <v>435</v>
       </c>
@@ -11105,11 +11885,14 @@
         <v>431</v>
       </c>
       <c r="I227" s="13"/>
-      <c r="J227" s="11" t="s">
+      <c r="J227" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="K227" s="11" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="228" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C228" s="4" t="s">
         <v>436</v>
       </c>
@@ -11126,11 +11909,14 @@
         <v>432</v>
       </c>
       <c r="I228" s="13"/>
-      <c r="J228" s="11" t="s">
+      <c r="J228" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="K228" s="11" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="229" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C229" s="3" t="s">
         <v>437</v>
       </c>
@@ -11147,11 +11933,14 @@
         <v>433</v>
       </c>
       <c r="I229" s="13"/>
-      <c r="J229" s="11" t="s">
+      <c r="J229" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="K229" s="11" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="230" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C230" s="4" t="s">
         <v>438</v>
       </c>
@@ -11168,11 +11957,14 @@
         <v>434</v>
       </c>
       <c r="I230" s="13"/>
-      <c r="J230" s="11" t="s">
+      <c r="J230" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="K230" s="11" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="231" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C231" s="4" t="s">
         <v>439</v>
       </c>
@@ -11189,11 +11981,14 @@
         <v>435</v>
       </c>
       <c r="I231" s="13"/>
-      <c r="J231" s="11" t="s">
+      <c r="J231" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="K231" s="11" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="232" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C232" s="4" t="s">
         <v>440</v>
       </c>
@@ -11210,11 +12005,14 @@
         <v>436</v>
       </c>
       <c r="I232" s="13"/>
-      <c r="J232" s="11" t="s">
+      <c r="J232" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K232" s="11" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="233" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C233" s="4" t="s">
         <v>441</v>
       </c>
@@ -11231,11 +12029,14 @@
         <v>437</v>
       </c>
       <c r="I233" s="13"/>
-      <c r="J233" s="11" t="s">
+      <c r="J233" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="K233" s="11" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="234" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C234" s="4" t="s">
         <v>442</v>
       </c>
@@ -11252,11 +12053,14 @@
         <v>438</v>
       </c>
       <c r="I234" s="13"/>
-      <c r="J234" s="11" t="s">
+      <c r="J234" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="K234" s="11" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="235" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C235" s="4" t="s">
         <v>443</v>
       </c>
@@ -11273,11 +12077,14 @@
         <v>1133</v>
       </c>
       <c r="I235" s="13"/>
-      <c r="J235" s="11" t="s">
+      <c r="J235" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="K235" s="11" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="236" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C236" s="4" t="s">
         <v>444</v>
       </c>
@@ -11294,11 +12101,14 @@
         <v>439</v>
       </c>
       <c r="I236" s="13"/>
-      <c r="J236" s="11" t="s">
+      <c r="J236" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="K236" s="11" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="237" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C237" s="4" t="s">
         <v>445</v>
       </c>
@@ -11315,11 +12125,14 @@
         <v>440</v>
       </c>
       <c r="I237" s="13"/>
-      <c r="J237" s="11" t="s">
+      <c r="J237" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="K237" s="11" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="238" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C238" s="4" t="s">
         <v>446</v>
       </c>
@@ -11336,11 +12149,14 @@
         <v>1134</v>
       </c>
       <c r="I238" s="13"/>
-      <c r="J238" s="11" t="s">
+      <c r="J238" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="K238" s="11" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="239" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C239" s="4" t="s">
         <v>447</v>
       </c>
@@ -11357,11 +12173,14 @@
         <v>1135</v>
       </c>
       <c r="I239" s="13"/>
-      <c r="J239" s="11" t="s">
+      <c r="J239" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K239" s="11" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="240" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C240" s="4" t="s">
         <v>448</v>
       </c>
@@ -11378,11 +12197,14 @@
         <v>1136</v>
       </c>
       <c r="I240" s="13"/>
-      <c r="J240" s="11" t="s">
+      <c r="J240" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="K240" s="11" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="241" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C241" s="4" t="s">
         <v>449</v>
       </c>
@@ -11399,11 +12221,14 @@
         <v>1137</v>
       </c>
       <c r="I241" s="13"/>
-      <c r="J241" s="11" t="s">
+      <c r="J241" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="K241" s="11" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="242" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C242" s="4" t="s">
         <v>450</v>
       </c>
@@ -11420,11 +12245,14 @@
         <v>1138</v>
       </c>
       <c r="I242" s="13"/>
-      <c r="J242" s="11" t="s">
+      <c r="J242" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="K242" s="11" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="243" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C243" s="4" t="s">
         <v>451</v>
       </c>
@@ -11441,11 +12269,14 @@
         <v>441</v>
       </c>
       <c r="I243" s="13"/>
-      <c r="J243" s="11" t="s">
+      <c r="J243" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="K243" s="11" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="244" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C244" s="4" t="s">
         <v>452</v>
       </c>
@@ -11462,11 +12293,14 @@
         <v>442</v>
       </c>
       <c r="I244" s="13"/>
-      <c r="J244" s="11" t="s">
+      <c r="J244" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="K244" s="11" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="245" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C245" s="4" t="s">
         <v>453</v>
       </c>
@@ -11483,11 +12317,14 @@
         <v>443</v>
       </c>
       <c r="I245" s="13"/>
-      <c r="J245" s="11" t="s">
+      <c r="J245" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="K245" s="11" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="246" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C246" s="4" t="s">
         <v>454</v>
       </c>
@@ -11504,11 +12341,14 @@
         <v>444</v>
       </c>
       <c r="I246" s="13"/>
-      <c r="J246" s="11" t="s">
+      <c r="J246" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K246" s="11" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="247" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C247" s="4" t="s">
         <v>455</v>
       </c>
@@ -11525,11 +12365,14 @@
         <v>445</v>
       </c>
       <c r="I247" s="13"/>
-      <c r="J247" s="11" t="s">
+      <c r="J247" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="K247" s="11" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="248" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C248" s="4" t="s">
         <v>456</v>
       </c>
@@ -11546,11 +12389,14 @@
         <v>446</v>
       </c>
       <c r="I248" s="13"/>
-      <c r="J248" s="11" t="s">
+      <c r="J248" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="K248" s="11" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="249" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C249" s="4" t="s">
         <v>457</v>
       </c>
@@ -11567,8 +12413,11 @@
         <v>447</v>
       </c>
       <c r="I249" s="14"/>
-    </row>
-    <row r="250" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J249" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="250" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C250" s="4" t="s">
         <v>458</v>
       </c>
@@ -11585,8 +12434,11 @@
         <v>448</v>
       </c>
       <c r="I250" s="14"/>
-    </row>
-    <row r="251" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J250" s="14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="251" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C251" s="4" t="s">
         <v>459</v>
       </c>
@@ -11603,8 +12455,11 @@
         <v>449</v>
       </c>
       <c r="I251" s="14"/>
-    </row>
-    <row r="252" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J251" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="252" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C252" s="4" t="s">
         <v>460</v>
       </c>
@@ -11621,8 +12476,11 @@
         <v>450</v>
       </c>
       <c r="I252" s="14"/>
-    </row>
-    <row r="253" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J252" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="253" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C253" s="4" t="s">
         <v>461</v>
       </c>
@@ -11639,8 +12497,11 @@
         <v>451</v>
       </c>
       <c r="I253" s="14"/>
-    </row>
-    <row r="254" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J253" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="254" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C254" s="4" t="s">
         <v>462</v>
       </c>
@@ -11657,8 +12518,11 @@
         <v>452</v>
       </c>
       <c r="I254" s="14"/>
-    </row>
-    <row r="255" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J254" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="255" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C255" s="4" t="s">
         <v>463</v>
       </c>
@@ -11675,8 +12539,11 @@
         <v>453</v>
       </c>
       <c r="I255" s="14"/>
-    </row>
-    <row r="256" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J255" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="256" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C256" s="3" t="s">
         <v>464</v>
       </c>
@@ -11693,8 +12560,11 @@
         <v>454</v>
       </c>
       <c r="I256" s="14"/>
-    </row>
-    <row r="257" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="257" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C257" s="4" t="s">
         <v>465</v>
       </c>
@@ -11711,8 +12581,11 @@
         <v>455</v>
       </c>
       <c r="I257" s="14"/>
-    </row>
-    <row r="258" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="258" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C258" s="4" t="s">
         <v>466</v>
       </c>
@@ -11729,8 +12602,11 @@
         <v>456</v>
       </c>
       <c r="I258" s="14"/>
-    </row>
-    <row r="259" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="259" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C259" s="4" t="s">
         <v>467</v>
       </c>
@@ -11747,8 +12623,11 @@
         <v>457</v>
       </c>
       <c r="I259" s="14"/>
-    </row>
-    <row r="260" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="260" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C260" s="4" t="s">
         <v>468</v>
       </c>
@@ -11765,8 +12644,11 @@
         <v>458</v>
       </c>
       <c r="I260" s="14"/>
-    </row>
-    <row r="261" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="261" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C261" s="4" t="s">
         <v>469</v>
       </c>
@@ -11783,8 +12665,11 @@
         <v>459</v>
       </c>
       <c r="I261" s="14"/>
-    </row>
-    <row r="262" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="14" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="262" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C262" s="4" t="s">
         <v>470</v>
       </c>
@@ -11801,8 +12686,11 @@
         <v>460</v>
       </c>
       <c r="I262" s="14"/>
-    </row>
-    <row r="263" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="263" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C263" s="4" t="s">
         <v>471</v>
       </c>
@@ -11819,8 +12707,11 @@
         <v>461</v>
       </c>
       <c r="I263" s="14"/>
-    </row>
-    <row r="264" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="264" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C264" s="4" t="s">
         <v>472</v>
       </c>
@@ -11837,8 +12728,11 @@
         <v>462</v>
       </c>
       <c r="I264" s="14"/>
-    </row>
-    <row r="265" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="265" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C265" s="4" t="s">
         <v>473</v>
       </c>
@@ -11855,8 +12749,11 @@
         <v>463</v>
       </c>
       <c r="I265" s="14"/>
-    </row>
-    <row r="266" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="14" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="266" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C266" s="4" t="s">
         <v>474</v>
       </c>
@@ -11873,8 +12770,11 @@
         <v>464</v>
       </c>
       <c r="I266" s="14"/>
-    </row>
-    <row r="267" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="267" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C267" s="4" t="s">
         <v>475</v>
       </c>
@@ -11891,8 +12791,11 @@
         <v>465</v>
       </c>
       <c r="I267" s="14"/>
-    </row>
-    <row r="268" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="268" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C268" s="4" t="s">
         <v>476</v>
       </c>
@@ -11909,8 +12812,11 @@
         <v>466</v>
       </c>
       <c r="I268" s="14"/>
-    </row>
-    <row r="269" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="269" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C269" s="4" t="s">
         <v>477</v>
       </c>
@@ -11927,8 +12833,11 @@
         <v>467</v>
       </c>
       <c r="I269" s="14"/>
-    </row>
-    <row r="270" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="270" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C270" s="4" t="s">
         <v>478</v>
       </c>
@@ -11945,8 +12854,11 @@
         <v>468</v>
       </c>
       <c r="I270" s="14"/>
-    </row>
-    <row r="271" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="271" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C271" s="4" t="s">
         <v>479</v>
       </c>
@@ -11963,15 +12875,18 @@
         <v>469</v>
       </c>
       <c r="I271" s="14"/>
-    </row>
-    <row r="272" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="272" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C272" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F272" s="2" t="s">
+      <c r="F272" s="1" t="s">
         <v>656</v>
       </c>
       <c r="G272" s="2" t="s">
@@ -11981,8 +12896,11 @@
         <v>470</v>
       </c>
       <c r="I272" s="14"/>
-    </row>
-    <row r="273" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="273" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C273" s="4" t="s">
         <v>481</v>
       </c>
@@ -11999,8 +12917,11 @@
         <v>471</v>
       </c>
       <c r="I273" s="14"/>
-    </row>
-    <row r="274" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="14" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="274" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C274" s="4" t="s">
         <v>482</v>
       </c>
@@ -12017,8 +12938,11 @@
         <v>472</v>
       </c>
       <c r="I274" s="14"/>
-    </row>
-    <row r="275" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="275" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C275" s="4" t="s">
         <v>483</v>
       </c>
@@ -12035,8 +12959,11 @@
         <v>473</v>
       </c>
       <c r="I275" s="14"/>
-    </row>
-    <row r="276" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="276" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C276" s="4" t="s">
         <v>484</v>
       </c>
@@ -12053,8 +12980,11 @@
         <v>474</v>
       </c>
       <c r="I276" s="14"/>
-    </row>
-    <row r="277" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="277" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C277" s="4" t="s">
         <v>485</v>
       </c>
@@ -12071,8 +13001,11 @@
         <v>475</v>
       </c>
       <c r="I277" s="14"/>
-    </row>
-    <row r="278" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="278" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C278" s="4" t="s">
         <v>486</v>
       </c>
@@ -12089,9 +13022,12 @@
         <v>476</v>
       </c>
       <c r="I278" s="14"/>
-    </row>
-    <row r="279" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C279" s="4" t="s">
+      <c r="J278" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="279" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C279" s="3" t="s">
         <v>487</v>
       </c>
       <c r="D279" s="2" t="s">
@@ -12107,8 +13043,11 @@
         <v>477</v>
       </c>
       <c r="I279" s="14"/>
-    </row>
-    <row r="280" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="280" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C280" s="4" t="s">
         <v>488</v>
       </c>
@@ -12125,8 +13064,11 @@
         <v>478</v>
       </c>
       <c r="I280" s="14"/>
-    </row>
-    <row r="281" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="281" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C281" s="4" t="s">
         <v>489</v>
       </c>
@@ -12143,8 +13085,11 @@
         <v>479</v>
       </c>
       <c r="I281" s="14"/>
-    </row>
-    <row r="282" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="282" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C282" s="4" t="s">
         <v>490</v>
       </c>
@@ -12161,8 +13106,11 @@
         <v>480</v>
       </c>
       <c r="I282" s="14"/>
-    </row>
-    <row r="283" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="283" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C283" s="4" t="s">
         <v>491</v>
       </c>
@@ -12179,8 +13127,11 @@
         <v>481</v>
       </c>
       <c r="I283" s="14"/>
-    </row>
-    <row r="284" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="284" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C284" s="3" t="s">
         <v>492</v>
       </c>
@@ -12197,8 +13148,11 @@
         <v>482</v>
       </c>
       <c r="I284" s="14"/>
-    </row>
-    <row r="285" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="285" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C285" s="4" t="s">
         <v>493</v>
       </c>
@@ -12215,8 +13169,11 @@
         <v>483</v>
       </c>
       <c r="I285" s="14"/>
-    </row>
-    <row r="286" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="286" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C286" s="4" t="s">
         <v>494</v>
       </c>
@@ -12233,8 +13190,11 @@
         <v>484</v>
       </c>
       <c r="I286" s="14"/>
-    </row>
-    <row r="287" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="287" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C287" s="4" t="s">
         <v>495</v>
       </c>
@@ -12251,8 +13211,11 @@
         <v>485</v>
       </c>
       <c r="I287" s="14"/>
-    </row>
-    <row r="288" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="288" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C288" s="4" t="s">
         <v>496</v>
       </c>
@@ -12269,8 +13232,11 @@
         <v>486</v>
       </c>
       <c r="I288" s="14"/>
-    </row>
-    <row r="289" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="289" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C289" s="4" t="s">
         <v>497</v>
       </c>
@@ -12287,8 +13253,11 @@
         <v>487</v>
       </c>
       <c r="I289" s="14"/>
-    </row>
-    <row r="290" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="290" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C290" s="4" t="s">
         <v>498</v>
       </c>
@@ -12305,8 +13274,11 @@
         <v>488</v>
       </c>
       <c r="I290" s="14"/>
-    </row>
-    <row r="291" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="291" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C291" s="4" t="s">
         <v>499</v>
       </c>
@@ -12323,8 +13295,11 @@
         <v>489</v>
       </c>
       <c r="I291" s="14"/>
-    </row>
-    <row r="292" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="292" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C292" s="3" t="s">
         <v>500</v>
       </c>
@@ -12341,8 +13316,11 @@
         <v>490</v>
       </c>
       <c r="I292" s="14"/>
-    </row>
-    <row r="293" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="293" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C293" s="4" t="s">
         <v>501</v>
       </c>
@@ -12359,8 +13337,11 @@
         <v>491</v>
       </c>
       <c r="I293" s="14"/>
-    </row>
-    <row r="294" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="294" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C294" s="4" t="s">
         <v>502</v>
       </c>
@@ -12377,8 +13358,11 @@
         <v>492</v>
       </c>
       <c r="I294" s="14"/>
-    </row>
-    <row r="295" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="295" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C295" s="4" t="s">
         <v>503</v>
       </c>
@@ -12395,8 +13379,11 @@
         <v>493</v>
       </c>
       <c r="I295" s="14"/>
-    </row>
-    <row r="296" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="296" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C296" s="4" t="s">
         <v>504</v>
       </c>
@@ -12413,8 +13400,11 @@
         <v>494</v>
       </c>
       <c r="I296" s="14"/>
-    </row>
-    <row r="297" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="297" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C297" s="4" t="s">
         <v>505</v>
       </c>
@@ -12431,8 +13421,11 @@
         <v>495</v>
       </c>
       <c r="I297" s="14"/>
-    </row>
-    <row r="298" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="298" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C298" s="4" t="s">
         <v>506</v>
       </c>
@@ -12449,8 +13442,11 @@
         <v>496</v>
       </c>
       <c r="I298" s="14"/>
-    </row>
-    <row r="299" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="299" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C299" s="3" t="s">
         <v>507</v>
       </c>
@@ -12467,8 +13463,11 @@
         <v>497</v>
       </c>
       <c r="I299" s="14"/>
-    </row>
-    <row r="300" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="300" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C300" s="4" t="s">
         <v>508</v>
       </c>
@@ -12485,8 +13484,11 @@
         <v>498</v>
       </c>
       <c r="I300" s="14"/>
-    </row>
-    <row r="301" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="14" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="301" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C301" s="3" t="s">
         <v>509</v>
       </c>
@@ -12503,8 +13505,11 @@
         <v>499</v>
       </c>
       <c r="I301" s="14"/>
-    </row>
-    <row r="302" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="302" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C302" s="4" t="s">
         <v>510</v>
       </c>
@@ -12521,8 +13526,11 @@
         <v>500</v>
       </c>
       <c r="I302" s="14"/>
-    </row>
-    <row r="303" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="303" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C303" s="4" t="s">
         <v>511</v>
       </c>
@@ -12539,8 +13547,11 @@
         <v>501</v>
       </c>
       <c r="I303" s="14"/>
-    </row>
-    <row r="304" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="304" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C304" s="4" t="s">
         <v>512</v>
       </c>
@@ -12557,8 +13568,11 @@
         <v>502</v>
       </c>
       <c r="I304" s="14"/>
-    </row>
-    <row r="305" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="305" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C305" s="4" t="s">
         <v>513</v>
       </c>
@@ -12575,8 +13589,11 @@
         <v>503</v>
       </c>
       <c r="I305" s="14"/>
-    </row>
-    <row r="306" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="14" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="306" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C306" s="4" t="s">
         <v>514</v>
       </c>
@@ -12593,8 +13610,11 @@
         <v>504</v>
       </c>
       <c r="I306" s="14"/>
-    </row>
-    <row r="307" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="307" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C307" s="4" t="s">
         <v>515</v>
       </c>
@@ -12611,8 +13631,11 @@
         <v>505</v>
       </c>
       <c r="I307" s="14"/>
-    </row>
-    <row r="308" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="308" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C308" s="4" t="s">
         <v>516</v>
       </c>
@@ -12629,8 +13652,11 @@
         <v>506</v>
       </c>
       <c r="I308" s="14"/>
-    </row>
-    <row r="309" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="309" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C309" s="4" t="s">
         <v>517</v>
       </c>
@@ -12647,8 +13673,11 @@
         <v>507</v>
       </c>
       <c r="I309" s="14"/>
-    </row>
-    <row r="310" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="310" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C310" s="4" t="s">
         <v>518</v>
       </c>
@@ -12665,15 +13694,18 @@
         <v>508</v>
       </c>
       <c r="I310" s="14"/>
-    </row>
-    <row r="311" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="311" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C311" s="4" t="s">
         <v>519</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F311" s="4" t="s">
+      <c r="F311" s="3" t="s">
         <v>662</v>
       </c>
       <c r="G311" s="8" t="s">
@@ -12683,8 +13715,11 @@
         <v>509</v>
       </c>
       <c r="I311" s="14"/>
-    </row>
-    <row r="312" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="312" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C312" s="4" t="s">
         <v>520</v>
       </c>
@@ -12701,8 +13736,11 @@
         <v>510</v>
       </c>
       <c r="I312" s="14"/>
-    </row>
-    <row r="313" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="313" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C313" s="4" t="s">
         <v>521</v>
       </c>
@@ -12719,8 +13757,11 @@
         <v>511</v>
       </c>
       <c r="I313" s="14"/>
-    </row>
-    <row r="314" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="314" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C314" s="4" t="s">
         <v>522</v>
       </c>
@@ -12737,8 +13778,11 @@
         <v>512</v>
       </c>
       <c r="I314" s="14"/>
-    </row>
-    <row r="315" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="315" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C315" s="4" t="s">
         <v>523</v>
       </c>
@@ -12755,15 +13799,18 @@
         <v>513</v>
       </c>
       <c r="I315" s="14"/>
-    </row>
-    <row r="316" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="14" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="316" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C316" s="4" t="s">
         <v>524</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F316" s="4" t="s">
+      <c r="F316" s="3" t="s">
         <v>487</v>
       </c>
       <c r="G316" s="8" t="s">
@@ -12773,8 +13820,11 @@
         <v>514</v>
       </c>
       <c r="I316" s="14"/>
-    </row>
-    <row r="317" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="14" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="317" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C317" s="4" t="s">
         <v>525</v>
       </c>
@@ -12791,8 +13841,11 @@
         <v>515</v>
       </c>
       <c r="I317" s="14"/>
-    </row>
-    <row r="318" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="318" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C318" s="4" t="s">
         <v>526</v>
       </c>
@@ -12809,8 +13862,11 @@
         <v>516</v>
       </c>
       <c r="I318" s="14"/>
-    </row>
-    <row r="319" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="319" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C319" s="4" t="s">
         <v>527</v>
       </c>
@@ -12827,8 +13883,11 @@
         <v>517</v>
       </c>
       <c r="I319" s="14"/>
-    </row>
-    <row r="320" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="14" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="320" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C320" s="4" t="s">
         <v>528</v>
       </c>
@@ -12845,12 +13904,15 @@
         <v>518</v>
       </c>
       <c r="I320" s="14"/>
-    </row>
-    <row r="321" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J320" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="321" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C321" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D321" s="8" t="s">
+      <c r="D321" s="10" t="s">
         <v>608</v>
       </c>
       <c r="F321" s="4" t="s">
@@ -12863,12 +13925,15 @@
         <v>519</v>
       </c>
       <c r="I321" s="14"/>
-    </row>
-    <row r="322" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="322" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C322" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D322" s="2" t="s">
+      <c r="D322" s="1" t="s">
         <v>487</v>
       </c>
       <c r="F322" s="3" t="s">
@@ -12881,8 +13946,11 @@
         <v>520</v>
       </c>
       <c r="I322" s="14"/>
-    </row>
-    <row r="323" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J322" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="323" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C323" s="4" t="s">
         <v>531</v>
       </c>
@@ -12899,8 +13967,11 @@
         <v>521</v>
       </c>
       <c r="I323" s="14"/>
-    </row>
-    <row r="324" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="324" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C324" s="4" t="s">
         <v>532</v>
       </c>
@@ -12917,8 +13988,11 @@
         <v>522</v>
       </c>
       <c r="I324" s="14"/>
-    </row>
-    <row r="325" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J324" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="325" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C325" s="4" t="s">
         <v>533</v>
       </c>
@@ -12935,8 +14009,11 @@
         <v>523</v>
       </c>
       <c r="I325" s="14"/>
-    </row>
-    <row r="326" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J325" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="326" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C326" s="4" t="s">
         <v>534</v>
       </c>
@@ -12953,8 +14030,11 @@
         <v>524</v>
       </c>
       <c r="I326" s="14"/>
-    </row>
-    <row r="327" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J326" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="327" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C327" s="4" t="s">
         <v>535</v>
       </c>
@@ -12971,8 +14051,11 @@
         <v>525</v>
       </c>
       <c r="I327" s="14"/>
-    </row>
-    <row r="328" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="328" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C328" s="4" t="s">
         <v>536</v>
       </c>
@@ -12989,8 +14072,11 @@
         <v>526</v>
       </c>
       <c r="I328" s="14"/>
-    </row>
-    <row r="329" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J328" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="329" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C329" s="4" t="s">
         <v>537</v>
       </c>
@@ -13007,8 +14093,11 @@
         <v>527</v>
       </c>
       <c r="I329" s="14"/>
-    </row>
-    <row r="330" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="330" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C330" s="4" t="s">
         <v>538</v>
       </c>
@@ -13025,8 +14114,11 @@
         <v>528</v>
       </c>
       <c r="I330" s="14"/>
-    </row>
-    <row r="331" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J330" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="331" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C331" s="4" t="s">
         <v>539</v>
       </c>
@@ -13043,8 +14135,11 @@
         <v>529</v>
       </c>
       <c r="I331" s="14"/>
-    </row>
-    <row r="332" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J331" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="332" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C332" s="4" t="s">
         <v>540</v>
       </c>
@@ -13061,8 +14156,11 @@
         <v>530</v>
       </c>
       <c r="I332" s="14"/>
-    </row>
-    <row r="333" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="333" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C333" s="4" t="s">
         <v>541</v>
       </c>
@@ -13079,8 +14177,11 @@
         <v>531</v>
       </c>
       <c r="I333" s="14"/>
-    </row>
-    <row r="334" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="334" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C334" s="4" t="s">
         <v>542</v>
       </c>
@@ -13097,8 +14198,11 @@
         <v>532</v>
       </c>
       <c r="I334" s="14"/>
-    </row>
-    <row r="335" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="335" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C335" s="4" t="s">
         <v>543</v>
       </c>
@@ -13115,8 +14219,11 @@
         <v>533</v>
       </c>
       <c r="I335" s="14"/>
-    </row>
-    <row r="336" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J335" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="336" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C336" s="4" t="s">
         <v>544</v>
       </c>
@@ -13133,8 +14240,11 @@
         <v>534</v>
       </c>
       <c r="I336" s="14"/>
-    </row>
-    <row r="337" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J336" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="337" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C337" s="4" t="s">
         <v>545</v>
       </c>
@@ -13151,8 +14261,11 @@
         <v>535</v>
       </c>
       <c r="I337" s="14"/>
-    </row>
-    <row r="338" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="338" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C338" s="4" t="s">
         <v>546</v>
       </c>
@@ -13169,8 +14282,11 @@
         <v>536</v>
       </c>
       <c r="I338" s="14"/>
-    </row>
-    <row r="339" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="339" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C339" s="4" t="s">
         <v>547</v>
       </c>
@@ -13187,8 +14303,11 @@
         <v>537</v>
       </c>
       <c r="I339" s="14"/>
-    </row>
-    <row r="340" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="340" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C340" s="4" t="s">
         <v>548</v>
       </c>
@@ -13205,8 +14324,11 @@
         <v>538</v>
       </c>
       <c r="I340" s="14"/>
-    </row>
-    <row r="341" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="341" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C341" s="4" t="s">
         <v>549</v>
       </c>
@@ -13223,8 +14345,11 @@
         <v>539</v>
       </c>
       <c r="I341" s="14"/>
-    </row>
-    <row r="342" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="14" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="342" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C342" s="4" t="s">
         <v>550</v>
       </c>
@@ -13241,8 +14366,11 @@
         <v>540</v>
       </c>
       <c r="I342" s="14"/>
-    </row>
-    <row r="343" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="343" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C343" s="4" t="s">
         <v>551</v>
       </c>
@@ -13259,8 +14387,11 @@
         <v>541</v>
       </c>
       <c r="I343" s="14"/>
-    </row>
-    <row r="344" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="344" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C344" s="4" t="s">
         <v>552</v>
       </c>
@@ -13277,8 +14408,11 @@
         <v>542</v>
       </c>
       <c r="I344" s="14"/>
-    </row>
-    <row r="345" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="345" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C345" s="4" t="s">
         <v>553</v>
       </c>
@@ -13295,8 +14429,11 @@
         <v>543</v>
       </c>
       <c r="I345" s="14"/>
-    </row>
-    <row r="346" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="346" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C346" s="4" t="s">
         <v>554</v>
       </c>
@@ -13313,8 +14450,11 @@
         <v>544</v>
       </c>
       <c r="I346" s="14"/>
-    </row>
-    <row r="347" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="347" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C347" s="4" t="s">
         <v>555</v>
       </c>
@@ -13331,8 +14471,11 @@
         <v>545</v>
       </c>
       <c r="I347" s="14"/>
-    </row>
-    <row r="348" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="348" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C348" s="4" t="s">
         <v>556</v>
       </c>
@@ -13349,8 +14492,11 @@
         <v>546</v>
       </c>
       <c r="I348" s="14"/>
-    </row>
-    <row r="349" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="349" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C349" s="4" t="s">
         <v>557</v>
       </c>
@@ -13367,8 +14513,11 @@
         <v>547</v>
       </c>
       <c r="I349" s="14"/>
-    </row>
-    <row r="350" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="350" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C350" s="4" t="s">
         <v>558</v>
       </c>
@@ -13385,8 +14534,11 @@
         <v>548</v>
       </c>
       <c r="I350" s="14"/>
-    </row>
-    <row r="351" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="351" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C351" s="4" t="s">
         <v>559</v>
       </c>
@@ -13403,8 +14555,11 @@
         <v>549</v>
       </c>
       <c r="I351" s="14"/>
-    </row>
-    <row r="352" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J351" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="352" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C352" s="4" t="s">
         <v>560</v>
       </c>
@@ -13421,8 +14576,11 @@
         <v>550</v>
       </c>
       <c r="I352" s="14"/>
-    </row>
-    <row r="353" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J352" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="353" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C353" s="4" t="s">
         <v>561</v>
       </c>
@@ -13439,8 +14597,11 @@
         <v>551</v>
       </c>
       <c r="I353" s="14"/>
-    </row>
-    <row r="354" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J353" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="354" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C354" s="4" t="s">
         <v>562</v>
       </c>
@@ -13457,8 +14618,11 @@
         <v>552</v>
       </c>
       <c r="I354" s="14"/>
-    </row>
-    <row r="355" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J354" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="355" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C355" s="4" t="s">
         <v>563</v>
       </c>
@@ -13475,8 +14639,11 @@
         <v>553</v>
       </c>
       <c r="I355" s="14"/>
-    </row>
-    <row r="356" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="356" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C356" s="4" t="s">
         <v>564</v>
       </c>
@@ -13493,8 +14660,11 @@
         <v>554</v>
       </c>
       <c r="I356" s="14"/>
-    </row>
-    <row r="357" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J356" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="357" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D357" s="2" t="s">
         <v>518</v>
       </c>
@@ -13508,8 +14678,11 @@
         <v>555</v>
       </c>
       <c r="I357" s="14"/>
-    </row>
-    <row r="358" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J357" s="14" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="358" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D358" s="2" t="s">
         <v>519</v>
       </c>
@@ -13523,8 +14696,11 @@
         <v>556</v>
       </c>
       <c r="I358" s="14"/>
-    </row>
-    <row r="359" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J358" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="359" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D359" s="2" t="s">
         <v>613</v>
       </c>
@@ -13538,8 +14714,11 @@
         <v>557</v>
       </c>
       <c r="I359" s="14"/>
-    </row>
-    <row r="360" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="360" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D360" s="2" t="s">
         <v>520</v>
       </c>
@@ -13553,8 +14732,11 @@
         <v>558</v>
       </c>
       <c r="I360" s="14"/>
-    </row>
-    <row r="361" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J360" s="14" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="361" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D361" s="2" t="s">
         <v>521</v>
       </c>
@@ -13568,8 +14750,11 @@
         <v>559</v>
       </c>
       <c r="I361" s="14"/>
-    </row>
-    <row r="362" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J361" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="362" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D362" s="2" t="s">
         <v>522</v>
       </c>
@@ -13583,8 +14768,11 @@
         <v>560</v>
       </c>
       <c r="I362" s="14"/>
-    </row>
-    <row r="363" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J362" s="14" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="363" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D363" s="1" t="s">
         <v>614</v>
       </c>
@@ -13598,8 +14786,11 @@
         <v>561</v>
       </c>
       <c r="I363" s="14"/>
-    </row>
-    <row r="364" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J363" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="364" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D364" s="2" t="s">
         <v>523</v>
       </c>
@@ -13613,8 +14804,11 @@
         <v>562</v>
       </c>
       <c r="I364" s="14"/>
-    </row>
-    <row r="365" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J364" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="365" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D365" s="2" t="s">
         <v>524</v>
       </c>
@@ -13628,8 +14822,11 @@
         <v>1139</v>
       </c>
       <c r="I365" s="14"/>
-    </row>
-    <row r="366" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J365" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="366" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D366" s="2" t="s">
         <v>525</v>
       </c>
@@ -13643,8 +14840,11 @@
         <v>563</v>
       </c>
       <c r="I366" s="14"/>
-    </row>
-    <row r="367" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J366" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="367" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D367" s="2" t="s">
         <v>615</v>
       </c>
@@ -13658,8 +14858,11 @@
         <v>564</v>
       </c>
       <c r="I367" s="14"/>
-    </row>
-    <row r="368" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J367" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="368" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D368" s="2" t="s">
         <v>616</v>
       </c>
@@ -13671,21 +14874,27 @@
       </c>
       <c r="H368" s="9"/>
       <c r="I368" s="9"/>
-    </row>
-    <row r="369" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J368" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="369" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D369" s="2" t="s">
         <v>617</v>
       </c>
       <c r="F369" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G369" s="8" t="s">
+      <c r="G369" s="1" t="s">
         <v>487</v>
       </c>
       <c r="H369" s="9"/>
       <c r="I369" s="9"/>
-    </row>
-    <row r="370" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="370" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D370" s="2" t="s">
         <v>618</v>
       </c>
@@ -13697,8 +14906,11 @@
       </c>
       <c r="H370" s="9"/>
       <c r="I370" s="9"/>
-    </row>
-    <row r="371" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J370" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="371" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D371" s="2" t="s">
         <v>619</v>
       </c>
@@ -13710,8 +14922,11 @@
       </c>
       <c r="H371" s="9"/>
       <c r="I371" s="9"/>
-    </row>
-    <row r="372" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J371" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="372" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D372" s="2" t="s">
         <v>526</v>
       </c>
@@ -13723,8 +14938,11 @@
       </c>
       <c r="H372" s="9"/>
       <c r="I372" s="9"/>
-    </row>
-    <row r="373" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="373" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D373" s="2" t="s">
         <v>620</v>
       </c>
@@ -13736,8 +14954,11 @@
       </c>
       <c r="H373" s="9"/>
       <c r="I373" s="9"/>
-    </row>
-    <row r="374" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J373" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="374" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D374" s="2" t="s">
         <v>527</v>
       </c>
@@ -13749,8 +14970,11 @@
       </c>
       <c r="H374" s="9"/>
       <c r="I374" s="9"/>
-    </row>
-    <row r="375" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J374" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="375" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D375" s="2" t="s">
         <v>528</v>
       </c>
@@ -13762,8 +14986,11 @@
       </c>
       <c r="H375" s="9"/>
       <c r="I375" s="9"/>
-    </row>
-    <row r="376" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="376" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D376" s="2" t="s">
         <v>529</v>
       </c>
@@ -13775,8 +15002,11 @@
       </c>
       <c r="H376" s="9"/>
       <c r="I376" s="9"/>
-    </row>
-    <row r="377" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J376" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="377" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D377" s="2" t="s">
         <v>621</v>
       </c>
@@ -13788,8 +15018,11 @@
       </c>
       <c r="H377" s="9"/>
       <c r="I377" s="9"/>
-    </row>
-    <row r="378" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="378" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D378" s="2" t="s">
         <v>622</v>
       </c>
@@ -13801,8 +15034,11 @@
       </c>
       <c r="H378" s="9"/>
       <c r="I378" s="9"/>
-    </row>
-    <row r="379" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J378" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="379" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D379" s="2" t="s">
         <v>623</v>
       </c>
@@ -13814,8 +15050,11 @@
       </c>
       <c r="H379" s="9"/>
       <c r="I379" s="9"/>
-    </row>
-    <row r="380" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J379" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="380" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D380" s="2" t="s">
         <v>530</v>
       </c>
@@ -13827,8 +15066,11 @@
       </c>
       <c r="H380" s="9"/>
       <c r="I380" s="9"/>
-    </row>
-    <row r="381" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J380" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="381" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D381" s="2" t="s">
         <v>531</v>
       </c>
@@ -13840,8 +15082,11 @@
       </c>
       <c r="H381" s="9"/>
       <c r="I381" s="9"/>
-    </row>
-    <row r="382" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J381" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="382" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D382" s="2" t="s">
         <v>532</v>
       </c>
@@ -13853,8 +15098,11 @@
       </c>
       <c r="H382" s="9"/>
       <c r="I382" s="9"/>
-    </row>
-    <row r="383" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J382" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="383" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D383" s="2" t="s">
         <v>533</v>
       </c>
@@ -13866,8 +15114,11 @@
       </c>
       <c r="H383" s="9"/>
       <c r="I383" s="9"/>
-    </row>
-    <row r="384" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="384" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D384" s="2" t="s">
         <v>534</v>
       </c>
@@ -13879,8 +15130,11 @@
       </c>
       <c r="H384" s="9"/>
       <c r="I384" s="9"/>
-    </row>
-    <row r="385" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J384" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="385" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D385" s="2" t="s">
         <v>624</v>
       </c>
@@ -13892,8 +15146,11 @@
       </c>
       <c r="H385" s="9"/>
       <c r="I385" s="9"/>
-    </row>
-    <row r="386" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J385" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="386" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D386" s="2" t="s">
         <v>535</v>
       </c>
@@ -13905,8 +15162,11 @@
       </c>
       <c r="H386" s="9"/>
       <c r="I386" s="9"/>
-    </row>
-    <row r="387" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J386" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="387" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D387" s="2" t="s">
         <v>536</v>
       </c>
@@ -13918,8 +15178,11 @@
       </c>
       <c r="H387" s="9"/>
       <c r="I387" s="9"/>
-    </row>
-    <row r="388" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J387" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="388" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D388" s="2" t="s">
         <v>537</v>
       </c>
@@ -13931,8 +15194,11 @@
       </c>
       <c r="H388" s="9"/>
       <c r="I388" s="9"/>
-    </row>
-    <row r="389" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J388" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="389" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D389" s="2" t="s">
         <v>538</v>
       </c>
@@ -13944,8 +15210,11 @@
       </c>
       <c r="H389" s="9"/>
       <c r="I389" s="9"/>
-    </row>
-    <row r="390" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J389" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="390" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D390" s="2" t="s">
         <v>539</v>
       </c>
@@ -13957,8 +15226,11 @@
       </c>
       <c r="H390" s="9"/>
       <c r="I390" s="9"/>
-    </row>
-    <row r="391" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J390" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="391" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D391" s="2" t="s">
         <v>540</v>
       </c>
@@ -13970,8 +15242,11 @@
       </c>
       <c r="H391" s="9"/>
       <c r="I391" s="9"/>
-    </row>
-    <row r="392" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J391" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="392" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D392" s="2" t="s">
         <v>541</v>
       </c>
@@ -13983,8 +15258,11 @@
       </c>
       <c r="H392" s="9"/>
       <c r="I392" s="9"/>
-    </row>
-    <row r="393" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J392" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="393" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D393" s="2" t="s">
         <v>542</v>
       </c>
@@ -13996,8 +15274,11 @@
       </c>
       <c r="H393" s="9"/>
       <c r="I393" s="9"/>
-    </row>
-    <row r="394" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J393" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="394" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D394" s="2" t="s">
         <v>543</v>
       </c>
@@ -14009,8 +15290,11 @@
       </c>
       <c r="H394" s="9"/>
       <c r="I394" s="9"/>
-    </row>
-    <row r="395" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J394" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="395" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D395" s="2" t="s">
         <v>544</v>
       </c>
@@ -14022,8 +15306,9 @@
       </c>
       <c r="H395" s="9"/>
       <c r="I395" s="9"/>
-    </row>
-    <row r="396" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J395" s="14"/>
+    </row>
+    <row r="396" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D396" s="2" t="s">
         <v>545</v>
       </c>
@@ -14035,8 +15320,9 @@
       </c>
       <c r="H396" s="9"/>
       <c r="I396" s="9"/>
-    </row>
-    <row r="397" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J396" s="14"/>
+    </row>
+    <row r="397" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D397" s="2" t="s">
         <v>546</v>
       </c>
@@ -14048,8 +15334,9 @@
       </c>
       <c r="H397" s="9"/>
       <c r="I397" s="9"/>
-    </row>
-    <row r="398" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J397" s="14"/>
+    </row>
+    <row r="398" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D398" s="2" t="s">
         <v>547</v>
       </c>
@@ -14061,8 +15348,9 @@
       </c>
       <c r="H398" s="9"/>
       <c r="I398" s="9"/>
-    </row>
-    <row r="399" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J398" s="14"/>
+    </row>
+    <row r="399" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D399" s="2" t="s">
         <v>548</v>
       </c>
@@ -14074,8 +15362,9 @@
       </c>
       <c r="H399" s="9"/>
       <c r="I399" s="9"/>
-    </row>
-    <row r="400" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J399" s="14"/>
+    </row>
+    <row r="400" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D400" s="2" t="s">
         <v>549</v>
       </c>
@@ -14084,8 +15373,9 @@
       </c>
       <c r="H400" s="9"/>
       <c r="I400" s="9"/>
-    </row>
-    <row r="401" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J400" s="14"/>
+    </row>
+    <row r="401" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D401" s="2" t="s">
         <v>550</v>
       </c>
@@ -14094,8 +15384,9 @@
       </c>
       <c r="H401" s="9"/>
       <c r="I401" s="9"/>
-    </row>
-    <row r="402" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J401" s="14"/>
+    </row>
+    <row r="402" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D402" s="2" t="s">
         <v>551</v>
       </c>
@@ -14104,8 +15395,9 @@
       </c>
       <c r="H402" s="9"/>
       <c r="I402" s="9"/>
-    </row>
-    <row r="403" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J402" s="14"/>
+    </row>
+    <row r="403" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D403" s="2" t="s">
         <v>552</v>
       </c>
@@ -14114,8 +15406,9 @@
       </c>
       <c r="H403" s="9"/>
       <c r="I403" s="9"/>
-    </row>
-    <row r="404" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J403" s="14"/>
+    </row>
+    <row r="404" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D404" s="2" t="s">
         <v>553</v>
       </c>
@@ -14124,8 +15417,9 @@
       </c>
       <c r="H404" s="9"/>
       <c r="I404" s="9"/>
-    </row>
-    <row r="405" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J404" s="14"/>
+    </row>
+    <row r="405" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D405" s="2" t="s">
         <v>554</v>
       </c>
@@ -14134,8 +15428,9 @@
       </c>
       <c r="H405" s="9"/>
       <c r="I405" s="9"/>
-    </row>
-    <row r="406" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="14"/>
+    </row>
+    <row r="406" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D406" s="2" t="s">
         <v>555</v>
       </c>
@@ -14144,8 +15439,9 @@
       </c>
       <c r="H406" s="9"/>
       <c r="I406" s="9"/>
-    </row>
-    <row r="407" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="14"/>
+    </row>
+    <row r="407" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D407" s="2" t="s">
         <v>556</v>
       </c>
@@ -14154,8 +15450,9 @@
       </c>
       <c r="H407" s="9"/>
       <c r="I407" s="9"/>
-    </row>
-    <row r="408" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="14"/>
+    </row>
+    <row r="408" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D408" s="2" t="s">
         <v>557</v>
       </c>
@@ -14164,8 +15461,9 @@
       </c>
       <c r="H408" s="9"/>
       <c r="I408" s="9"/>
-    </row>
-    <row r="409" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J408" s="14"/>
+    </row>
+    <row r="409" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D409" s="2" t="s">
         <v>558</v>
       </c>
@@ -14174,8 +15472,9 @@
       </c>
       <c r="H409" s="9"/>
       <c r="I409" s="9"/>
-    </row>
-    <row r="410" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J409" s="14"/>
+    </row>
+    <row r="410" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D410" s="2" t="s">
         <v>559</v>
       </c>
@@ -14184,8 +15483,9 @@
       </c>
       <c r="H410" s="9"/>
       <c r="I410" s="9"/>
-    </row>
-    <row r="411" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J410" s="14"/>
+    </row>
+    <row r="411" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D411" s="2" t="s">
         <v>560</v>
       </c>
@@ -14194,8 +15494,9 @@
       </c>
       <c r="H411" s="9"/>
       <c r="I411" s="9"/>
-    </row>
-    <row r="412" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J411" s="14"/>
+    </row>
+    <row r="412" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D412" s="2" t="s">
         <v>561</v>
       </c>
@@ -14204,8 +15505,9 @@
       </c>
       <c r="H412" s="9"/>
       <c r="I412" s="9"/>
-    </row>
-    <row r="413" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="14"/>
+    </row>
+    <row r="413" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D413" s="2" t="s">
         <v>562</v>
       </c>
@@ -14214,8 +15516,9 @@
       </c>
       <c r="H413" s="9"/>
       <c r="I413" s="9"/>
-    </row>
-    <row r="414" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="14"/>
+    </row>
+    <row r="414" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D414" s="2" t="s">
         <v>563</v>
       </c>
@@ -14224,8 +15527,9 @@
       </c>
       <c r="H414" s="9"/>
       <c r="I414" s="9"/>
-    </row>
-    <row r="415" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="14"/>
+    </row>
+    <row r="415" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D415" s="2" t="s">
         <v>564</v>
       </c>
@@ -14234,293 +15538,335 @@
       </c>
       <c r="H415" s="9"/>
       <c r="I415" s="9"/>
-    </row>
-    <row r="416" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J415" s="14"/>
+    </row>
+    <row r="416" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G416" s="8" t="s">
         <v>627</v>
       </c>
       <c r="H416" s="9"/>
       <c r="I416" s="9"/>
-    </row>
-    <row r="417" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="14"/>
+    </row>
+    <row r="417" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G417" s="8" t="s">
         <v>1127</v>
       </c>
       <c r="H417" s="9"/>
       <c r="I417" s="9"/>
-    </row>
-    <row r="418" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J417" s="14"/>
+    </row>
+    <row r="418" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G418" s="8" t="s">
         <v>1128</v>
       </c>
       <c r="H418" s="9"/>
       <c r="I418" s="9"/>
-    </row>
-    <row r="419" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="14"/>
+    </row>
+    <row r="419" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G419" s="8" t="s">
         <v>528</v>
       </c>
       <c r="H419" s="9"/>
       <c r="I419" s="9"/>
-    </row>
-    <row r="420" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J419" s="14"/>
+    </row>
+    <row r="420" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G420" s="8" t="s">
         <v>529</v>
       </c>
       <c r="H420" s="9"/>
       <c r="I420" s="9"/>
-    </row>
-    <row r="421" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J420" s="14"/>
+    </row>
+    <row r="421" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G421" s="8" t="s">
         <v>530</v>
       </c>
       <c r="H421" s="9"/>
       <c r="I421" s="9"/>
-    </row>
-    <row r="422" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="14"/>
+    </row>
+    <row r="422" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G422" s="8" t="s">
         <v>531</v>
       </c>
       <c r="H422" s="9"/>
       <c r="I422" s="9"/>
-    </row>
-    <row r="423" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="14"/>
+    </row>
+    <row r="423" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G423" s="8" t="s">
         <v>532</v>
       </c>
       <c r="H423" s="9"/>
       <c r="I423" s="9"/>
-    </row>
-    <row r="424" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J423" s="14"/>
+    </row>
+    <row r="424" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G424" s="8" t="s">
         <v>533</v>
       </c>
       <c r="H424" s="9"/>
       <c r="I424" s="9"/>
-    </row>
-    <row r="425" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J424" s="14"/>
+    </row>
+    <row r="425" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G425" s="8" t="s">
         <v>534</v>
       </c>
       <c r="H425" s="9"/>
       <c r="I425" s="9"/>
-    </row>
-    <row r="426" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J425" s="14"/>
+    </row>
+    <row r="426" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G426" s="8" t="s">
         <v>535</v>
       </c>
       <c r="H426" s="9"/>
       <c r="I426" s="9"/>
-    </row>
-    <row r="427" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J426" s="14"/>
+    </row>
+    <row r="427" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G427" s="8" t="s">
         <v>536</v>
       </c>
       <c r="H427" s="9"/>
       <c r="I427" s="9"/>
-    </row>
-    <row r="428" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J427" s="14"/>
+    </row>
+    <row r="428" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G428" s="8" t="s">
         <v>537</v>
       </c>
       <c r="H428" s="9"/>
       <c r="I428" s="9"/>
-    </row>
-    <row r="429" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J428" s="14"/>
+    </row>
+    <row r="429" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G429" s="8" t="s">
         <v>538</v>
       </c>
       <c r="H429" s="9"/>
       <c r="I429" s="9"/>
-    </row>
-    <row r="430" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="14"/>
+    </row>
+    <row r="430" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G430" s="8" t="s">
         <v>539</v>
       </c>
       <c r="H430" s="9"/>
       <c r="I430" s="9"/>
-    </row>
-    <row r="431" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J430" s="14"/>
+    </row>
+    <row r="431" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G431" s="8" t="s">
         <v>540</v>
       </c>
       <c r="H431" s="9"/>
       <c r="I431" s="9"/>
-    </row>
-    <row r="432" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="14"/>
+    </row>
+    <row r="432" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G432" s="8" t="s">
         <v>541</v>
       </c>
       <c r="H432" s="9"/>
       <c r="I432" s="9"/>
-    </row>
-    <row r="433" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="14"/>
+    </row>
+    <row r="433" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G433" s="8" t="s">
         <v>542</v>
       </c>
       <c r="H433" s="9"/>
       <c r="I433" s="9"/>
-    </row>
-    <row r="434" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="14"/>
+    </row>
+    <row r="434" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G434" s="8" t="s">
         <v>1129</v>
       </c>
       <c r="H434" s="9"/>
       <c r="I434" s="9"/>
-    </row>
-    <row r="435" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J434" s="14"/>
+    </row>
+    <row r="435" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G435" s="8" t="s">
         <v>543</v>
       </c>
       <c r="H435" s="9"/>
       <c r="I435" s="9"/>
-    </row>
-    <row r="436" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="14"/>
+    </row>
+    <row r="436" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G436" s="8" t="s">
         <v>544</v>
       </c>
       <c r="H436" s="9"/>
       <c r="I436" s="9"/>
-    </row>
-    <row r="437" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J436" s="14"/>
+    </row>
+    <row r="437" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G437" s="8" t="s">
         <v>545</v>
       </c>
       <c r="H437" s="9"/>
       <c r="I437" s="9"/>
-    </row>
-    <row r="438" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J437" s="14"/>
+    </row>
+    <row r="438" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G438" s="8" t="s">
         <v>546</v>
       </c>
       <c r="H438" s="9"/>
       <c r="I438" s="9"/>
-    </row>
-    <row r="439" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="14"/>
+    </row>
+    <row r="439" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G439" s="8" t="s">
         <v>547</v>
       </c>
       <c r="H439" s="9"/>
       <c r="I439" s="9"/>
-    </row>
-    <row r="440" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J439" s="14"/>
+    </row>
+    <row r="440" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G440" s="8" t="s">
         <v>548</v>
       </c>
       <c r="H440" s="9"/>
       <c r="I440" s="9"/>
-    </row>
-    <row r="441" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J440" s="14"/>
+    </row>
+    <row r="441" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G441" s="8" t="s">
         <v>549</v>
       </c>
       <c r="H441" s="9"/>
       <c r="I441" s="9"/>
-    </row>
-    <row r="442" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J441" s="14"/>
+    </row>
+    <row r="442" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G442" s="8" t="s">
         <v>550</v>
       </c>
       <c r="H442" s="9"/>
       <c r="I442" s="9"/>
-    </row>
-    <row r="443" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J442" s="14"/>
+    </row>
+    <row r="443" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G443" s="8" t="s">
         <v>551</v>
       </c>
       <c r="H443" s="9"/>
       <c r="I443" s="9"/>
-    </row>
-    <row r="444" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J443" s="14"/>
+    </row>
+    <row r="444" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G444" s="8" t="s">
         <v>552</v>
       </c>
       <c r="H444" s="9"/>
       <c r="I444" s="9"/>
-    </row>
-    <row r="445" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J444" s="14"/>
+    </row>
+    <row r="445" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G445" s="8" t="s">
         <v>553</v>
       </c>
       <c r="H445" s="9"/>
       <c r="I445" s="9"/>
-    </row>
-    <row r="446" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J445" s="14"/>
+    </row>
+    <row r="446" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G446" s="8" t="s">
         <v>554</v>
       </c>
       <c r="H446" s="9"/>
       <c r="I446" s="9"/>
-    </row>
-    <row r="447" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J446" s="14"/>
+    </row>
+    <row r="447" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G447" s="8" t="s">
         <v>555</v>
       </c>
       <c r="H447" s="9"/>
       <c r="I447" s="9"/>
-    </row>
-    <row r="448" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J447" s="14"/>
+    </row>
+    <row r="448" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G448" s="8" t="s">
         <v>556</v>
       </c>
       <c r="H448" s="9"/>
       <c r="I448" s="9"/>
-    </row>
-    <row r="449" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J448" s="14"/>
+    </row>
+    <row r="449" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G449" s="8" t="s">
         <v>557</v>
       </c>
       <c r="H449" s="9"/>
       <c r="I449" s="9"/>
-    </row>
-    <row r="450" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J449" s="14"/>
+    </row>
+    <row r="450" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G450" s="8" t="s">
         <v>558</v>
       </c>
       <c r="H450" s="9"/>
       <c r="I450" s="9"/>
-    </row>
-    <row r="451" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J450" s="14"/>
+    </row>
+    <row r="451" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G451" s="8" t="s">
         <v>559</v>
       </c>
       <c r="H451" s="9"/>
       <c r="I451" s="9"/>
-    </row>
-    <row r="452" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J451" s="14"/>
+    </row>
+    <row r="452" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G452" s="8" t="s">
         <v>560</v>
       </c>
       <c r="H452" s="9"/>
       <c r="I452" s="9"/>
-    </row>
-    <row r="453" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J452" s="14"/>
+    </row>
+    <row r="453" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G453" s="8" t="s">
         <v>561</v>
       </c>
       <c r="H453" s="9"/>
       <c r="I453" s="9"/>
-    </row>
-    <row r="454" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J453" s="14"/>
+    </row>
+    <row r="454" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G454" s="8" t="s">
         <v>562</v>
       </c>
       <c r="H454" s="9"/>
       <c r="I454" s="9"/>
-    </row>
-    <row r="455" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J454" s="14"/>
+    </row>
+    <row r="455" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G455" s="8" t="s">
         <v>563</v>
       </c>
       <c r="H455" s="9"/>
       <c r="I455" s="9"/>
-    </row>
-    <row r="456" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J455" s="14"/>
+    </row>
+    <row r="456" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G456" s="8" t="s">
         <v>564</v>
       </c>
       <c r="H456" s="9"/>
       <c r="I456" s="9"/>
+      <c r="J456" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
